--- a/SideProject/03_Kaggle_House_Prices/Features.xlsx
+++ b/SideProject/03_Kaggle_House_Prices/Features.xlsx
@@ -688,7 +688,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -698,7 +698,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
